--- a/study.xlsx
+++ b/study.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="111">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,6 +397,86 @@
   </si>
   <si>
     <t>愿意参加活动，但是已经到尾房阶段。且该公司暂时没有计划开发新的楼盘。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金景帝豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚需</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未见到销售总监，而且说不方便给销售总监的电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢佳敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置业顾问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>466542403@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼盘进入尾盘，一个星期都很难销售一套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙桥花园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未见到销售经理，拿到了名片。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张娟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1113691330@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公园地产，氛围很好。但是可惜是小盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颐龙名居</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未见到销售人员，周末都去带客户看盘了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼盘定位比刚需要高，而且几乎都是大户型。但是从户型图都是复印件来看可能看房的人挺多。可以重复跑一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,7 +536,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -468,6 +548,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -784,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -972,19 +1055,19 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1002,25 +1085,25 @@
       <c r="J5" s="2">
         <v>41940</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1036,10 +1119,10 @@
       <c r="J6" s="2">
         <v>41940</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
+      <c r="K6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
     </row>
     <row r="7" spans="1:16" ht="81" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
@@ -1115,19 +1198,19 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>55</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1139,25 +1222,25 @@
       <c r="H9" s="1">
         <v>18089825080</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="7">
         <v>41943</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="1" t="s">
         <v>57</v>
       </c>
@@ -1167,10 +1250,10 @@
       <c r="H10" s="4">
         <v>13807576681</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="5"/>
-      <c r="P10" s="5"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="6"/>
+      <c r="P10" s="6"/>
     </row>
     <row r="11" spans="1:16" ht="108" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
@@ -1243,22 +1326,22 @@
       <c r="B13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
@@ -1322,13 +1405,122 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>15</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="1">
+        <v>13698922302</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1101</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="1">
+        <v>13876788000</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1101</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="1">
+        <v>18976542044</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1101</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="C13:P13"/>
     <mergeCell ref="B9:B10"/>
@@ -1336,18 +1528,6 @@
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1355,8 +1535,10 @@
     <hyperlink ref="I8" r:id="rId2"/>
     <hyperlink ref="I2" r:id="rId3"/>
     <hyperlink ref="I9" r:id="rId4"/>
+    <hyperlink ref="I18" r:id="rId5"/>
+    <hyperlink ref="I19" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>